--- a/input/temple.xlsx
+++ b/input/temple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="17670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="3" r:id="rId1"/>
@@ -328,8 +328,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -355,6 +355,89 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -363,7 +446,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,60 +478,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,59 +493,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,25 +544,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,157 +700,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,17 +741,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,11 +780,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,15 +830,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -826,30 +838,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -858,10 +846,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,133 +858,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1682,8 +1670,8 @@
   <sheetPr/>
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1715,9 +1703,7 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
-        <v>94147</v>
-      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="5">
         <v>110300</v>
       </c>
@@ -1732,9 +1718,7 @@
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="5">
         <v>0</v>
       </c>
@@ -1749,9 +1733,7 @@
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="5">
         <v>0</v>
       </c>
@@ -1766,9 +1748,7 @@
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
-        <v>2060</v>
-      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="5">
         <v>0</v>
       </c>
@@ -1783,9 +1763,7 @@
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
-        <v>2926</v>
-      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="5">
         <v>917</v>
       </c>
@@ -1800,9 +1778,7 @@
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="5">
         <v>0</v>
       </c>
@@ -1817,9 +1793,7 @@
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
-        <v>1198</v>
-      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="5">
         <v>1367</v>
       </c>
@@ -1834,9 +1808,7 @@
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5">
-        <v>367</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="5">
         <v>4472</v>
       </c>
@@ -1851,9 +1823,7 @@
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5">
-        <v>10728</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="5">
         <v>11262</v>
       </c>
@@ -1868,9 +1838,7 @@
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="5">
         <v>0</v>
       </c>
@@ -1885,9 +1853,7 @@
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="5">
         <v>0</v>
       </c>
@@ -1902,9 +1868,7 @@
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="5">
         <v>0</v>
       </c>
@@ -1919,9 +1883,7 @@
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5">
-        <v>3086</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="5">
         <v>1763</v>
       </c>
@@ -1936,9 +1898,7 @@
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="7">
-        <v>114513</v>
-      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="7">
         <v>130080</v>
       </c>
@@ -1953,9 +1913,7 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="5">
         <v>0</v>
       </c>
@@ -1970,9 +1928,7 @@
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="5">
         <v>0</v>
       </c>
@@ -1987,9 +1943,7 @@
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
+      <c r="B18" s="5"/>
       <c r="C18" s="5">
         <v>0</v>
       </c>
@@ -2004,9 +1958,7 @@
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="5">
         <v>0</v>
       </c>
@@ -2021,9 +1973,7 @@
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
+      <c r="B20" s="5"/>
       <c r="C20" s="5">
         <v>0</v>
       </c>
@@ -2038,9 +1988,7 @@
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="5">
         <v>0</v>
       </c>
@@ -2055,9 +2003,7 @@
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
+      <c r="B22" s="5"/>
       <c r="C22" s="5">
         <v>547</v>
       </c>
@@ -2072,9 +2018,7 @@
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="5">
-        <v>27866</v>
-      </c>
+      <c r="B23" s="5"/>
       <c r="C23" s="5">
         <v>26254</v>
       </c>
@@ -2089,9 +2033,7 @@
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="5">
-        <v>132</v>
-      </c>
+      <c r="B24" s="5"/>
       <c r="C24" s="5">
         <v>135</v>
       </c>
@@ -2106,9 +2048,7 @@
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="5">
-        <v>0</v>
-      </c>
+      <c r="B25" s="5"/>
       <c r="C25" s="5">
         <v>0</v>
       </c>
@@ -2123,9 +2063,7 @@
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="5">
-        <v>0</v>
-      </c>
+      <c r="B26" s="5"/>
       <c r="C26" s="5">
         <v>0</v>
       </c>
@@ -2140,9 +2078,7 @@
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="5">
-        <v>0</v>
-      </c>
+      <c r="B27" s="5"/>
       <c r="C27" s="5">
         <v>0</v>
       </c>
@@ -2157,9 +2093,7 @@
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="5">
-        <v>1744</v>
-      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="5">
         <v>1778</v>
       </c>
@@ -2174,9 +2108,7 @@
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="5">
-        <v>0</v>
-      </c>
+      <c r="B29" s="5"/>
       <c r="C29" s="5">
         <v>0</v>
       </c>
@@ -2191,9 +2123,7 @@
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="5">
-        <v>0</v>
-      </c>
+      <c r="B30" s="5"/>
       <c r="C30" s="5">
         <v>0</v>
       </c>
@@ -2208,9 +2138,7 @@
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="5">
-        <v>1524</v>
-      </c>
+      <c r="B31" s="5"/>
       <c r="C31" s="5">
         <v>397</v>
       </c>
@@ -2225,9 +2153,7 @@
       <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="5">
-        <v>1676</v>
-      </c>
+      <c r="B32" s="5"/>
       <c r="C32" s="5">
         <v>994</v>
       </c>
@@ -2242,9 +2168,7 @@
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="5">
-        <v>134</v>
-      </c>
+      <c r="B33" s="5"/>
       <c r="C33" s="5">
         <v>111</v>
       </c>
@@ -2259,9 +2183,7 @@
       <c r="A34" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="7">
-        <v>33075</v>
-      </c>
+      <c r="B34" s="7"/>
       <c r="C34" s="7">
         <v>30215</v>
       </c>
@@ -2276,9 +2198,7 @@
       <c r="A35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="10">
-        <v>147588</v>
-      </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="10">
         <v>160296</v>
       </c>
@@ -2293,9 +2213,7 @@
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="5">
-        <v>2060</v>
-      </c>
+      <c r="B36" s="5"/>
       <c r="C36" s="5">
         <v>0</v>
       </c>
@@ -2310,9 +2228,7 @@
       <c r="A37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="5">
-        <v>0</v>
-      </c>
+      <c r="B37" s="5"/>
       <c r="C37" s="5">
         <v>0</v>
       </c>
@@ -2327,9 +2243,7 @@
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="5">
-        <v>0</v>
-      </c>
+      <c r="B38" s="5"/>
       <c r="C38" s="5">
         <v>0</v>
       </c>
@@ -2344,9 +2258,7 @@
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="5">
-        <v>0</v>
-      </c>
+      <c r="B39" s="5"/>
       <c r="C39" s="5">
         <v>0</v>
       </c>
@@ -2361,9 +2273,7 @@
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="5">
-        <v>19754</v>
-      </c>
+      <c r="B40" s="5"/>
       <c r="C40" s="5">
         <v>21595</v>
       </c>
@@ -2378,9 +2288,7 @@
       <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="5">
-        <v>22961</v>
-      </c>
+      <c r="B41" s="5"/>
       <c r="C41" s="5">
         <v>20525</v>
       </c>
@@ -2395,9 +2303,7 @@
       <c r="A42" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="5">
-        <v>0</v>
-      </c>
+      <c r="B42" s="5"/>
       <c r="C42" s="5">
         <v>0</v>
       </c>
@@ -2412,9 +2318,7 @@
       <c r="A43" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="5">
-        <v>1236</v>
-      </c>
+      <c r="B43" s="5"/>
       <c r="C43" s="5">
         <v>1612</v>
       </c>
@@ -2429,9 +2333,7 @@
       <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="5">
-        <v>4657</v>
-      </c>
+      <c r="B44" s="5"/>
       <c r="C44" s="5">
         <v>4573</v>
       </c>
@@ -2446,9 +2348,7 @@
       <c r="A45" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="5">
-        <v>12803</v>
-      </c>
+      <c r="B45" s="5"/>
       <c r="C45" s="5">
         <v>13644</v>
       </c>
@@ -2463,9 +2363,7 @@
       <c r="A46" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="5">
-        <v>0</v>
-      </c>
+      <c r="B46" s="5"/>
       <c r="C46" s="5">
         <v>0</v>
       </c>
@@ -2480,9 +2378,7 @@
       <c r="A47" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="5">
-        <v>0</v>
-      </c>
+      <c r="B47" s="5"/>
       <c r="C47" s="5">
         <v>0</v>
       </c>
@@ -2497,9 +2393,7 @@
       <c r="A48" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="5">
-        <v>0</v>
-      </c>
+      <c r="B48" s="5"/>
       <c r="C48" s="5">
         <v>0</v>
       </c>
@@ -2514,9 +2408,7 @@
       <c r="A49" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="7">
-        <v>63471</v>
-      </c>
+      <c r="B49" s="7"/>
       <c r="C49" s="7">
         <v>61949</v>
       </c>
@@ -2531,9 +2423,7 @@
       <c r="A50" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="5">
-        <v>0</v>
-      </c>
+      <c r="B50" s="5"/>
       <c r="C50" s="5">
         <v>0</v>
       </c>
@@ -2548,9 +2438,7 @@
       <c r="A51" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="5">
-        <v>0</v>
-      </c>
+      <c r="B51" s="5"/>
       <c r="C51" s="5">
         <v>0</v>
       </c>
@@ -2565,9 +2453,7 @@
       <c r="A52" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="5">
-        <v>0</v>
-      </c>
+      <c r="B52" s="5"/>
       <c r="C52" s="5">
         <v>0</v>
       </c>
@@ -2582,9 +2468,7 @@
       <c r="A53" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="5">
-        <v>0</v>
-      </c>
+      <c r="B53" s="5"/>
       <c r="C53" s="5">
         <v>0</v>
       </c>
@@ -2599,9 +2483,7 @@
       <c r="A54" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="5">
-        <v>0</v>
-      </c>
+      <c r="B54" s="5"/>
       <c r="C54" s="5">
         <v>0</v>
       </c>
@@ -2616,9 +2498,7 @@
       <c r="A55" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="5">
-        <v>0</v>
-      </c>
+      <c r="B55" s="5"/>
       <c r="C55" s="5">
         <v>0</v>
       </c>
@@ -2633,9 +2513,7 @@
       <c r="A56" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="5">
-        <v>1308</v>
-      </c>
+      <c r="B56" s="5"/>
       <c r="C56" s="5">
         <v>2351</v>
       </c>
@@ -2650,9 +2528,7 @@
       <c r="A57" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="5">
-        <v>0</v>
-      </c>
+      <c r="B57" s="5"/>
       <c r="C57" s="5">
         <v>0</v>
       </c>
@@ -2667,9 +2543,7 @@
       <c r="A58" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="12">
-        <v>1308</v>
-      </c>
+      <c r="B58" s="12"/>
       <c r="C58" s="12">
         <v>2351</v>
       </c>
@@ -2684,9 +2558,7 @@
       <c r="A59" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="10">
-        <v>64779</v>
-      </c>
+      <c r="B59" s="10"/>
       <c r="C59" s="10">
         <v>64300</v>
       </c>
@@ -2701,9 +2573,7 @@
       <c r="A60" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="5">
-        <v>36000</v>
-      </c>
+      <c r="B60" s="5"/>
       <c r="C60" s="5">
         <v>36000</v>
       </c>
@@ -2718,9 +2588,7 @@
       <c r="A61" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="5">
-        <v>0</v>
-      </c>
+      <c r="B61" s="5"/>
       <c r="C61" s="5">
         <v>0</v>
       </c>
@@ -2735,9 +2603,7 @@
       <c r="A62" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="5">
-        <v>1567</v>
-      </c>
+      <c r="B62" s="5"/>
       <c r="C62" s="5">
         <v>1567</v>
       </c>
@@ -2752,9 +2618,7 @@
       <c r="A63" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="5">
-        <v>0</v>
-      </c>
+      <c r="B63" s="5"/>
       <c r="C63" s="5">
         <v>0</v>
       </c>
@@ -2769,9 +2633,7 @@
       <c r="A64" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="5">
-        <v>0</v>
-      </c>
+      <c r="B64" s="5"/>
       <c r="C64" s="5">
         <v>0</v>
       </c>
@@ -2786,9 +2648,7 @@
       <c r="A65" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="5">
-        <v>11043</v>
-      </c>
+      <c r="B65" s="5"/>
       <c r="C65" s="5">
         <v>13145</v>
       </c>
@@ -2803,9 +2663,7 @@
       <c r="A66" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="5">
-        <v>34200</v>
-      </c>
+      <c r="B66" s="5"/>
       <c r="C66" s="5">
         <v>45290</v>
       </c>
@@ -2820,9 +2678,7 @@
       <c r="A67" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="10">
-        <v>82809</v>
-      </c>
+      <c r="B67" s="10"/>
       <c r="C67" s="10">
         <v>95996</v>
       </c>
@@ -2837,9 +2693,7 @@
       <c r="A68" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="14">
-        <v>120813</v>
-      </c>
+      <c r="B68" s="14"/>
       <c r="C68" s="14">
         <v>135232</v>
       </c>
@@ -2854,9 +2708,7 @@
       <c r="A69" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="14">
-        <v>39058</v>
-      </c>
+      <c r="B69" s="14"/>
       <c r="C69" s="14">
         <v>42901</v>
       </c>
@@ -2871,9 +2723,7 @@
       <c r="A70" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="16">
-        <v>1826</v>
-      </c>
+      <c r="B70" s="16"/>
       <c r="C70" s="16">
         <v>1727</v>
       </c>
@@ -2888,9 +2738,7 @@
       <c r="A71" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="16">
-        <v>47228</v>
-      </c>
+      <c r="B71" s="16"/>
       <c r="C71" s="16">
         <v>46695</v>
       </c>
@@ -2905,9 +2753,7 @@
       <c r="A72" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="16">
-        <v>8125</v>
-      </c>
+      <c r="B72" s="16"/>
       <c r="C72" s="16">
         <v>9618</v>
       </c>
@@ -2922,9 +2768,7 @@
       <c r="A73" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="16">
-        <v>0</v>
-      </c>
+      <c r="B73" s="16"/>
       <c r="C73" s="16">
         <v>0</v>
       </c>
@@ -2939,9 +2783,7 @@
       <c r="A74" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="16">
-        <v>-1635</v>
-      </c>
+      <c r="B74" s="16"/>
       <c r="C74" s="16">
         <v>-1229</v>
       </c>
@@ -2956,9 +2798,7 @@
       <c r="A75" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="16">
-        <v>0</v>
-      </c>
+      <c r="B75" s="16"/>
       <c r="C75" s="16">
         <v>0</v>
       </c>
@@ -2973,9 +2813,7 @@
       <c r="A76" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="16">
-        <v>0</v>
-      </c>
+      <c r="B76" s="16"/>
       <c r="C76" s="16">
         <v>0</v>
       </c>
@@ -2990,9 +2828,7 @@
       <c r="A77" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="16">
-        <v>0</v>
-      </c>
+      <c r="B77" s="16"/>
       <c r="C77" s="16">
         <v>0</v>
       </c>
@@ -3007,9 +2843,7 @@
       <c r="A78" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="16">
-        <v>0</v>
-      </c>
+      <c r="B78" s="16"/>
       <c r="C78" s="16">
         <v>0</v>
       </c>
@@ -3024,9 +2858,7 @@
       <c r="A79" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="16">
-        <v>0</v>
-      </c>
+      <c r="B79" s="16"/>
       <c r="C79" s="16">
         <v>0</v>
       </c>
@@ -3041,9 +2873,7 @@
       <c r="A80" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="16">
-        <v>0</v>
-      </c>
+      <c r="B80" s="16"/>
       <c r="C80" s="16">
         <v>0</v>
       </c>
@@ -3058,9 +2888,7 @@
       <c r="A81" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="16">
-        <v>0</v>
-      </c>
+      <c r="B81" s="16"/>
       <c r="C81" s="16">
         <v>0</v>
       </c>
@@ -3075,9 +2903,7 @@
       <c r="A82" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="14">
-        <v>26031</v>
-      </c>
+      <c r="B82" s="14"/>
       <c r="C82" s="14">
         <v>36605</v>
       </c>
@@ -3092,9 +2918,7 @@
       <c r="A83" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="16">
-        <v>0</v>
-      </c>
+      <c r="B83" s="16"/>
       <c r="C83" s="16">
         <v>0</v>
       </c>
@@ -3109,9 +2933,7 @@
       <c r="A84" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="16">
-        <v>0</v>
-      </c>
+      <c r="B84" s="16"/>
       <c r="C84" s="16">
         <v>0</v>
       </c>
@@ -3126,9 +2948,7 @@
       <c r="A85" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="14">
-        <v>27351</v>
-      </c>
+      <c r="B85" s="14"/>
       <c r="C85" s="14">
         <v>36664</v>
       </c>
@@ -3143,9 +2963,7 @@
       <c r="A86" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="16">
-        <v>4132</v>
-      </c>
+      <c r="B86" s="16"/>
       <c r="C86" s="16">
         <v>5473</v>
       </c>
@@ -3160,9 +2978,7 @@
       <c r="A87" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="14">
-        <v>23219</v>
-      </c>
+      <c r="B87" s="14"/>
       <c r="C87" s="14">
         <v>31192</v>
       </c>
@@ -3177,9 +2993,7 @@
       <c r="A88" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="18">
-        <v>136056</v>
-      </c>
+      <c r="B88" s="18"/>
       <c r="C88" s="18">
         <v>163141</v>
       </c>
@@ -3194,9 +3008,7 @@
       <c r="A89" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="18">
-        <v>131271</v>
-      </c>
+      <c r="B89" s="18"/>
       <c r="C89" s="18">
         <v>160579</v>
       </c>
@@ -3211,9 +3023,7 @@
       <c r="A90" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="18">
-        <v>114723</v>
-      </c>
+      <c r="B90" s="18"/>
       <c r="C90" s="18">
         <v>127521</v>
       </c>
@@ -3228,9 +3038,7 @@
       <c r="A91" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="21">
-        <v>21333</v>
-      </c>
+      <c r="B91" s="21"/>
       <c r="C91" s="21">
         <v>35620</v>
       </c>
@@ -3245,9 +3053,7 @@
       <c r="A92" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="18">
-        <v>0</v>
-      </c>
+      <c r="B92" s="18"/>
       <c r="C92" s="18">
         <v>58237</v>
       </c>
@@ -3262,9 +3068,7 @@
       <c r="A93" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="21">
-        <v>662</v>
-      </c>
+      <c r="B93" s="21"/>
       <c r="C93" s="21">
         <v>57639</v>
       </c>
@@ -3279,9 +3083,7 @@
       <c r="A94" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="21">
-        <v>-661</v>
-      </c>
+      <c r="B94" s="21"/>
       <c r="C94" s="21">
         <v>598</v>
       </c>
@@ -3296,9 +3098,7 @@
       <c r="A95" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="18">
-        <v>4120</v>
-      </c>
+      <c r="B95" s="18"/>
       <c r="C95" s="18">
         <v>1190</v>
       </c>
@@ -3313,9 +3113,7 @@
       <c r="A96" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="18">
-        <v>15620</v>
-      </c>
+      <c r="B96" s="18"/>
       <c r="C96" s="18">
         <v>21250</v>
       </c>
@@ -3330,9 +3128,7 @@
       <c r="A97" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="21">
-        <v>-11500</v>
-      </c>
+      <c r="B97" s="21"/>
       <c r="C97" s="21">
         <v>-20060</v>
       </c>
@@ -3347,9 +3143,7 @@
       <c r="A98" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="21">
-        <v>9164</v>
-      </c>
+      <c r="B98" s="21"/>
       <c r="C98" s="21">
         <v>16153</v>
       </c>

--- a/input/temple.xlsx
+++ b/input/temple.xlsx
@@ -20,16 +20,16 @@
     <t>项目</t>
   </si>
   <si>
-    <t>2016年</t>
-  </si>
-  <si>
-    <t>2017年</t>
-  </si>
-  <si>
-    <t>2018年</t>
-  </si>
-  <si>
-    <t>2019年9月</t>
+    <t>前3年</t>
+  </si>
+  <si>
+    <t>前2年</t>
+  </si>
+  <si>
+    <t>前1年</t>
+  </si>
+  <si>
+    <t>当期</t>
   </si>
   <si>
     <t xml:space="preserve">货币资金 </t>
@@ -327,10 +327,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -355,11 +356,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,7 +386,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,16 +416,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,19 +446,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -445,6 +468,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -460,42 +484,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -544,25 +545,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,145 +713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,15 +742,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -766,21 +758,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -791,24 +768,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,6 +789,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -838,6 +815,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -846,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,149 +859,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1036,7 +1038,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="4" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1044,7 +1045,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1052,7 +1052,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1060,11 +1059,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="7" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1072,7 +1069,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1671,7 +1667,7 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B98"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1686,13 +1682,13 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1700,1462 +1696,1462 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6">
         <v>110300</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>156345</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>183271</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6">
         <v>917</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>290</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
         <v>1367</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>1716</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>2102</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
         <v>4472</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>172</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6">
         <v>11262</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>12908</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>17367</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6">
         <v>1763</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>7635</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8">
         <v>130080</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="8">
         <v>179066</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>291702</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6">
         <v>547</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="6">
         <v>516</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="6">
         <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6">
         <v>26254</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="6">
         <v>26010</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="6">
         <v>25167</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6">
         <v>135</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="6">
         <v>19</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5">
-        <v>0</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6">
         <v>1778</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="6">
         <v>2764</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="6">
         <v>2700</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5">
-        <v>0</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6">
         <v>397</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="6">
         <v>1670</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="6">
         <v>965</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6">
         <v>994</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="6">
         <v>1555</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="6">
         <v>2263</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6">
         <v>111</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="6">
         <v>88</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="6">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8">
         <v>30215</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="8">
         <v>32622</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="8">
         <v>31636</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11">
         <v>160296</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="11">
         <v>211689</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="11">
         <v>323339</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5">
-        <v>0</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5">
-        <v>0</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5">
-        <v>0</v>
-      </c>
-      <c r="D38" s="5">
-        <v>0</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5">
-        <v>0</v>
-      </c>
-      <c r="D39" s="5">
-        <v>0</v>
-      </c>
-      <c r="E39" s="5">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6">
         <v>21595</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="6">
         <v>27336</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="6">
         <v>26726</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6">
         <v>20525</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="6">
         <v>18439</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="6">
         <v>19704</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5">
-        <v>0</v>
-      </c>
-      <c r="D42" s="5">
-        <v>0</v>
-      </c>
-      <c r="E42" s="5">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6">
         <v>1612</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="6">
         <v>1684</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="6">
         <v>853</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6">
         <v>4573</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="6">
         <v>6243</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="6">
         <v>3163</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6">
         <v>13644</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="6">
         <v>17236</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="6">
         <v>18638</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5">
-        <v>0</v>
-      </c>
-      <c r="D46" s="5">
-        <v>0</v>
-      </c>
-      <c r="E46" s="5">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5">
-        <v>0</v>
-      </c>
-      <c r="D47" s="5">
-        <v>0</v>
-      </c>
-      <c r="E47" s="5">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5">
-        <v>0</v>
-      </c>
-      <c r="D48" s="5">
-        <v>0</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8">
         <v>61949</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="8">
         <v>70939</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="8">
         <v>69084</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5">
-        <v>0</v>
-      </c>
-      <c r="D50" s="5">
-        <v>0</v>
-      </c>
-      <c r="E50" s="5">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5">
-        <v>0</v>
-      </c>
-      <c r="D51" s="5">
-        <v>0</v>
-      </c>
-      <c r="E51" s="5">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5">
-        <v>0</v>
-      </c>
-      <c r="D52" s="5">
-        <v>0</v>
-      </c>
-      <c r="E52" s="5">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5">
-        <v>0</v>
-      </c>
-      <c r="D53" s="5">
-        <v>0</v>
-      </c>
-      <c r="E53" s="5">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5">
-        <v>0</v>
-      </c>
-      <c r="D54" s="5">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5">
-        <v>0</v>
-      </c>
-      <c r="D55" s="5">
-        <v>0</v>
-      </c>
-      <c r="E55" s="5">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6">
         <v>2351</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="6">
         <v>2564</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="6">
         <v>2858</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5">
-        <v>0</v>
-      </c>
-      <c r="D57" s="5">
-        <v>0</v>
-      </c>
-      <c r="E57" s="5">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13">
         <v>2351</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="13">
         <v>2564</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="13">
         <v>2858</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11">
         <v>64300</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="11">
         <v>73502</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="11">
         <v>71942</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6">
         <v>36000</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="6">
         <v>36000</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="6">
         <v>40100</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5">
-        <v>0</v>
-      </c>
-      <c r="D61" s="5">
-        <v>0</v>
-      </c>
-      <c r="E61" s="5">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6">
         <v>1567</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="6">
         <v>1567</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="6">
         <v>75424</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5">
-        <v>0</v>
-      </c>
-      <c r="D63" s="5">
-        <v>0</v>
-      </c>
-      <c r="E63" s="5">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5">
-        <v>0</v>
-      </c>
-      <c r="D64" s="5">
-        <v>0</v>
-      </c>
-      <c r="E64" s="5">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6">
+        <v>0</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6">
         <v>13145</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="6">
         <v>16811</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="6">
         <v>16811</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6">
         <v>45290</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="6">
         <v>83152</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="6">
         <v>119061</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10">
+      <c r="B67" s="11"/>
+      <c r="C67" s="11">
         <v>95996</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="11">
         <v>138186</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="11">
         <v>251397</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14">
+      <c r="B68" s="15"/>
+      <c r="C68" s="15">
         <v>135232</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D68" s="15">
         <v>157576</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="15">
         <v>121159</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14">
+      <c r="B69" s="15"/>
+      <c r="C69" s="15">
         <v>42901</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="15">
         <v>49896</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="15">
         <v>38834</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16">
+      <c r="B70" s="17"/>
+      <c r="C70" s="17">
         <v>1727</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="17">
         <v>2090</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="17">
         <v>1284</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16">
+      <c r="B71" s="17"/>
+      <c r="C71" s="17">
         <v>46695</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="17">
         <v>53459</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="17">
         <v>36569</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16">
+      <c r="B72" s="17"/>
+      <c r="C72" s="17">
         <v>9618</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D72" s="17">
         <v>10636</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="17">
         <v>9054</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16">
-        <v>0</v>
-      </c>
-      <c r="D73" s="16">
-        <v>0</v>
-      </c>
-      <c r="E73" s="16">
+      <c r="B73" s="17"/>
+      <c r="C73" s="17">
+        <v>0</v>
+      </c>
+      <c r="D73" s="17">
+        <v>0</v>
+      </c>
+      <c r="E73" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16">
+      <c r="B74" s="17"/>
+      <c r="C74" s="17">
         <v>-1229</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="17">
         <v>-743</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="17">
         <v>-1635</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16">
-        <v>0</v>
-      </c>
-      <c r="D75" s="16">
-        <v>0</v>
-      </c>
-      <c r="E75" s="16">
+      <c r="B75" s="17"/>
+      <c r="C75" s="17">
+        <v>0</v>
+      </c>
+      <c r="D75" s="17">
+        <v>0</v>
+      </c>
+      <c r="E75" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16">
-        <v>0</v>
-      </c>
-      <c r="D76" s="16">
-        <v>0</v>
-      </c>
-      <c r="E76" s="16">
+      <c r="B76" s="17"/>
+      <c r="C76" s="17">
+        <v>0</v>
+      </c>
+      <c r="D76" s="17">
+        <v>0</v>
+      </c>
+      <c r="E76" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16">
-        <v>0</v>
-      </c>
-      <c r="D77" s="16">
-        <v>0</v>
-      </c>
-      <c r="E77" s="16">
+      <c r="B77" s="17"/>
+      <c r="C77" s="17">
+        <v>0</v>
+      </c>
+      <c r="D77" s="17">
+        <v>0</v>
+      </c>
+      <c r="E77" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16">
-        <v>0</v>
-      </c>
-      <c r="D78" s="16">
-        <v>0</v>
-      </c>
-      <c r="E78" s="16">
+      <c r="B78" s="17"/>
+      <c r="C78" s="17">
+        <v>0</v>
+      </c>
+      <c r="D78" s="17">
+        <v>0</v>
+      </c>
+      <c r="E78" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16">
-        <v>0</v>
-      </c>
-      <c r="D79" s="16">
-        <v>0</v>
-      </c>
-      <c r="E79" s="16">
+      <c r="B79" s="17"/>
+      <c r="C79" s="17">
+        <v>0</v>
+      </c>
+      <c r="D79" s="17">
+        <v>0</v>
+      </c>
+      <c r="E79" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16">
-        <v>0</v>
-      </c>
-      <c r="D80" s="16">
-        <v>0</v>
-      </c>
-      <c r="E80" s="16">
+      <c r="B80" s="17"/>
+      <c r="C80" s="17">
+        <v>0</v>
+      </c>
+      <c r="D80" s="17">
+        <v>0</v>
+      </c>
+      <c r="E80" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16">
-        <v>0</v>
-      </c>
-      <c r="D81" s="16">
-        <v>0</v>
-      </c>
-      <c r="E81" s="16">
+      <c r="B81" s="17"/>
+      <c r="C81" s="17">
+        <v>0</v>
+      </c>
+      <c r="D81" s="17">
+        <v>0</v>
+      </c>
+      <c r="E81" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14">
+      <c r="B82" s="15"/>
+      <c r="C82" s="15">
         <v>36605</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D82" s="15">
         <v>48417</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E82" s="15">
         <v>42728</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16">
-        <v>0</v>
-      </c>
-      <c r="D83" s="16">
-        <v>0</v>
-      </c>
-      <c r="E83" s="16">
+      <c r="B83" s="17"/>
+      <c r="C83" s="17">
+        <v>0</v>
+      </c>
+      <c r="D83" s="17">
+        <v>0</v>
+      </c>
+      <c r="E83" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16">
-        <v>0</v>
-      </c>
-      <c r="D84" s="16">
-        <v>0</v>
-      </c>
-      <c r="E84" s="16">
+      <c r="B84" s="17"/>
+      <c r="C84" s="17">
+        <v>0</v>
+      </c>
+      <c r="D84" s="17">
+        <v>0</v>
+      </c>
+      <c r="E84" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14">
+      <c r="B85" s="15"/>
+      <c r="C85" s="15">
         <v>36664</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D85" s="15">
         <v>48630</v>
       </c>
-      <c r="E85" s="14">
+      <c r="E85" s="15">
         <v>42867</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16">
+      <c r="B86" s="17"/>
+      <c r="C86" s="17">
         <v>5473</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D86" s="17">
         <v>7426</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E86" s="17">
         <v>7165</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14">
+      <c r="B87" s="15"/>
+      <c r="C87" s="15">
         <v>31192</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D87" s="15">
         <v>41204</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E87" s="15">
         <v>35703</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18">
+      <c r="B88" s="19"/>
+      <c r="C88" s="19">
         <v>163141</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D88" s="19">
         <v>195586</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="19">
         <v>144769</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18">
+      <c r="B89" s="19"/>
+      <c r="C89" s="19">
         <v>160579</v>
       </c>
-      <c r="D89" s="18">
+      <c r="D89" s="19">
         <v>186227</v>
       </c>
-      <c r="E89" s="18">
+      <c r="E89" s="19">
         <v>138475</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18">
+      <c r="B90" s="19"/>
+      <c r="C90" s="19">
         <v>127521</v>
       </c>
-      <c r="D90" s="18">
+      <c r="D90" s="19">
         <v>143917</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E90" s="19">
         <v>116360</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21">
+      <c r="B91" s="22"/>
+      <c r="C91" s="22">
         <v>35620</v>
       </c>
-      <c r="D91" s="21">
+      <c r="D91" s="22">
         <v>51669</v>
       </c>
-      <c r="E91" s="21">
+      <c r="E91" s="22">
         <v>28409</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18">
+      <c r="B92" s="19"/>
+      <c r="C92" s="19">
         <v>58237</v>
       </c>
-      <c r="D92" s="18">
+      <c r="D92" s="19">
         <v>109510</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E92" s="19">
         <v>65352</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21">
+      <c r="B93" s="22"/>
+      <c r="C93" s="22">
         <v>57639</v>
       </c>
-      <c r="D93" s="21">
+      <c r="D93" s="22">
         <v>115134</v>
       </c>
-      <c r="E93" s="21">
+      <c r="E93" s="22">
         <v>145839</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21">
+      <c r="B94" s="22"/>
+      <c r="C94" s="22">
         <v>598</v>
       </c>
-      <c r="D94" s="21">
+      <c r="D94" s="22">
         <v>-5624</v>
       </c>
-      <c r="E94" s="21">
+      <c r="E94" s="22">
         <v>-80487</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18">
+      <c r="B95" s="19"/>
+      <c r="C95" s="19">
         <v>1190</v>
       </c>
-      <c r="D95" s="18">
-        <v>0</v>
-      </c>
-      <c r="E95" s="18">
+      <c r="D95" s="19">
+        <v>0</v>
+      </c>
+      <c r="E95" s="19">
         <v>80427</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="17" t="s">
+      <c r="A96" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18">
+      <c r="B96" s="19"/>
+      <c r="C96" s="19">
         <v>21250</v>
       </c>
-      <c r="D96" s="18">
-        <v>0</v>
-      </c>
-      <c r="E96" s="18">
+      <c r="D96" s="19">
+        <v>0</v>
+      </c>
+      <c r="E96" s="19">
         <v>1430</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="21"/>
-      <c r="C97" s="21">
+      <c r="B97" s="22"/>
+      <c r="C97" s="22">
         <v>-20060</v>
       </c>
-      <c r="D97" s="21">
-        <v>0</v>
-      </c>
-      <c r="E97" s="21">
+      <c r="D97" s="22">
+        <v>0</v>
+      </c>
+      <c r="E97" s="22">
         <v>78997</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="21"/>
-      <c r="C98" s="21">
+      <c r="B98" s="22"/>
+      <c r="C98" s="22">
         <v>16153</v>
       </c>
-      <c r="D98" s="21">
+      <c r="D98" s="22">
         <v>46045</v>
       </c>
-      <c r="E98" s="21">
+      <c r="E98" s="22">
         <v>26926</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YEYo51GZA3n4oIDrn4xKv5Eb6eric9iB+Dl2PAPriMg4lEN9bJnQ62aaT+N4bhgMNGW7w3fTzGlxHjUx24mgcA==" saltValue="uo2GuMJpwngSFMv41FLr/g==" spinCount="100000" sheet="1" selectLockedCells="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection password="CF7A" sheet="1" selectLockedCells="1" objects="1"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="yd85lmMkZVdu2c6qmpPWPGf/GV5Vx/Dn9LbzgMkc4PMHeGEM0YhXOCuCj43CudNfZNxdoQ8Dd8/6M0JLewZ6qQ==" saltValue="HKxbh+uGGMaXbYKv5ngJLA==" spinCount="100000" sqref="B2:E67" name="区域2"/>
     <protectedRange algorithmName="SHA-512" hashValue="v5SsmSWWPZCqlneZtaZoqOwRxx/lVHmmIq6GmMCJPEUdalzy68C1JqGj+SSAfBdfH+dUJqylgsrpJf5YjRCMpQ==" saltValue="3kGiwtT+zJKVRM4SOBsZtw==" spinCount="100000" sqref="B2:E67" name="区域1"/>

--- a/input/temple.xlsx
+++ b/input/temple.xlsx
@@ -328,11 +328,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -356,24 +356,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,17 +379,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,14 +403,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,23 +425,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,6 +448,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,17 +486,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -545,97 +545,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,73 +707,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,6 +738,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,55 +796,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,6 +819,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -847,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -859,133 +859,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1666,8 +1666,8 @@
   <sheetPr/>
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1706,9 +1706,7 @@
       <c r="D2" s="6">
         <v>156345</v>
       </c>
-      <c r="E2" s="6">
-        <v>183271</v>
-      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
@@ -1721,9 +1719,7 @@
       <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
@@ -1736,9 +1732,7 @@
       <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
@@ -1751,9 +1745,7 @@
       <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
@@ -1766,9 +1758,7 @@
       <c r="D6" s="6">
         <v>290</v>
       </c>
-      <c r="E6" s="6">
-        <v>161</v>
-      </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
@@ -1781,9 +1771,7 @@
       <c r="D7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
@@ -1796,9 +1784,7 @@
       <c r="D8" s="6">
         <v>1716</v>
       </c>
-      <c r="E8" s="6">
-        <v>2102</v>
-      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
@@ -1811,9 +1797,7 @@
       <c r="D9" s="6">
         <v>172</v>
       </c>
-      <c r="E9" s="6">
-        <v>306</v>
-      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
@@ -1826,9 +1810,7 @@
       <c r="D10" s="6">
         <v>12908</v>
       </c>
-      <c r="E10" s="6">
-        <v>17367</v>
-      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
@@ -1841,9 +1823,7 @@
       <c r="D11" s="6">
         <v>0</v>
       </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
@@ -1856,9 +1836,7 @@
       <c r="D12" s="6">
         <v>0</v>
       </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
@@ -1871,9 +1849,7 @@
       <c r="D13" s="6">
         <v>0</v>
       </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
@@ -1886,9 +1862,7 @@
       <c r="D14" s="6">
         <v>7635</v>
       </c>
-      <c r="E14" s="6">
-        <v>647</v>
-      </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
@@ -1901,9 +1875,7 @@
       <c r="D15" s="8">
         <v>179066</v>
       </c>
-      <c r="E15" s="8">
-        <v>291702</v>
-      </c>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
@@ -1916,9 +1888,7 @@
       <c r="D16" s="6">
         <v>0</v>
       </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
@@ -1931,9 +1901,7 @@
       <c r="D17" s="6">
         <v>0</v>
       </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
@@ -1946,9 +1914,7 @@
       <c r="D18" s="6">
         <v>0</v>
       </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
@@ -1961,9 +1927,7 @@
       <c r="D19" s="6">
         <v>0</v>
       </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
@@ -1976,9 +1940,7 @@
       <c r="D20" s="6">
         <v>0</v>
       </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
@@ -1991,9 +1953,7 @@
       <c r="D21" s="6">
         <v>0</v>
       </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
@@ -2006,9 +1966,7 @@
       <c r="D22" s="6">
         <v>516</v>
       </c>
-      <c r="E22" s="6">
-        <v>493</v>
-      </c>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
@@ -2021,9 +1979,7 @@
       <c r="D23" s="6">
         <v>26010</v>
       </c>
-      <c r="E23" s="6">
-        <v>25167</v>
-      </c>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
@@ -2036,9 +1992,7 @@
       <c r="D24" s="6">
         <v>19</v>
       </c>
-      <c r="E24" s="6">
-        <v>16</v>
-      </c>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
@@ -2051,9 +2005,7 @@
       <c r="D25" s="6">
         <v>0</v>
       </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
@@ -2066,9 +2018,7 @@
       <c r="D26" s="6">
         <v>0</v>
       </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
@@ -2081,9 +2031,7 @@
       <c r="D27" s="6">
         <v>0</v>
       </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
@@ -2096,9 +2044,7 @@
       <c r="D28" s="6">
         <v>2764</v>
       </c>
-      <c r="E28" s="6">
-        <v>2700</v>
-      </c>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
@@ -2111,9 +2057,7 @@
       <c r="D29" s="6">
         <v>0</v>
       </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
@@ -2126,9 +2070,7 @@
       <c r="D30" s="6">
         <v>0</v>
       </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
@@ -2141,9 +2083,7 @@
       <c r="D31" s="6">
         <v>1670</v>
       </c>
-      <c r="E31" s="6">
-        <v>965</v>
-      </c>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
@@ -2156,9 +2096,7 @@
       <c r="D32" s="6">
         <v>1555</v>
       </c>
-      <c r="E32" s="6">
-        <v>2263</v>
-      </c>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
@@ -2171,9 +2109,7 @@
       <c r="D33" s="6">
         <v>88</v>
       </c>
-      <c r="E33" s="6">
-        <v>32</v>
-      </c>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="9" t="s">
@@ -2186,9 +2122,7 @@
       <c r="D34" s="8">
         <v>32622</v>
       </c>
-      <c r="E34" s="8">
-        <v>31636</v>
-      </c>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="10" t="s">
@@ -2201,9 +2135,7 @@
       <c r="D35" s="11">
         <v>211689</v>
       </c>
-      <c r="E35" s="11">
-        <v>323339</v>
-      </c>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="5" t="s">
@@ -2216,9 +2148,7 @@
       <c r="D36" s="6">
         <v>0</v>
       </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="12" t="s">
@@ -2231,9 +2161,7 @@
       <c r="D37" s="6">
         <v>0</v>
       </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="5" t="s">
@@ -2246,9 +2174,7 @@
       <c r="D38" s="6">
         <v>0</v>
       </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="5" t="s">
@@ -2261,9 +2187,7 @@
       <c r="D39" s="6">
         <v>0</v>
       </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
@@ -2276,9 +2200,7 @@
       <c r="D40" s="6">
         <v>27336</v>
       </c>
-      <c r="E40" s="6">
-        <v>26726</v>
-      </c>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
@@ -2291,9 +2213,7 @@
       <c r="D41" s="6">
         <v>18439</v>
       </c>
-      <c r="E41" s="6">
-        <v>19704</v>
-      </c>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="12" t="s">
@@ -2306,9 +2226,7 @@
       <c r="D42" s="6">
         <v>0</v>
       </c>
-      <c r="E42" s="6">
-        <v>0</v>
-      </c>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="12" t="s">
@@ -2321,9 +2239,7 @@
       <c r="D43" s="6">
         <v>1684</v>
       </c>
-      <c r="E43" s="6">
-        <v>853</v>
-      </c>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="5" t="s">
@@ -2336,9 +2252,7 @@
       <c r="D44" s="6">
         <v>6243</v>
       </c>
-      <c r="E44" s="6">
-        <v>3163</v>
-      </c>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="5" t="s">
@@ -2351,9 +2265,7 @@
       <c r="D45" s="6">
         <v>17236</v>
       </c>
-      <c r="E45" s="6">
-        <v>18638</v>
-      </c>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5" t="s">
@@ -2366,9 +2278,7 @@
       <c r="D46" s="6">
         <v>0</v>
       </c>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5" t="s">
@@ -2381,9 +2291,7 @@
       <c r="D47" s="6">
         <v>0</v>
       </c>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
+      <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="12" t="s">
@@ -2396,9 +2304,7 @@
       <c r="D48" s="6">
         <v>0</v>
       </c>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="9" t="s">
@@ -2411,9 +2317,7 @@
       <c r="D49" s="8">
         <v>70939</v>
       </c>
-      <c r="E49" s="8">
-        <v>69084</v>
-      </c>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="5" t="s">
@@ -2426,9 +2330,7 @@
       <c r="D50" s="6">
         <v>0</v>
       </c>
-      <c r="E50" s="6">
-        <v>0</v>
-      </c>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="5" t="s">
@@ -2441,9 +2343,7 @@
       <c r="D51" s="6">
         <v>0</v>
       </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="5" t="s">
@@ -2456,9 +2356,7 @@
       <c r="D52" s="6">
         <v>0</v>
       </c>
-      <c r="E52" s="6">
-        <v>0</v>
-      </c>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="5" t="s">
@@ -2471,9 +2369,7 @@
       <c r="D53" s="6">
         <v>0</v>
       </c>
-      <c r="E53" s="6">
-        <v>0</v>
-      </c>
+      <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="5" t="s">
@@ -2486,9 +2382,7 @@
       <c r="D54" s="6">
         <v>0</v>
       </c>
-      <c r="E54" s="6">
-        <v>0</v>
-      </c>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="5" t="s">
@@ -2501,9 +2395,7 @@
       <c r="D55" s="6">
         <v>0</v>
       </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
+      <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="5" t="s">
@@ -2516,9 +2408,7 @@
       <c r="D56" s="6">
         <v>2564</v>
       </c>
-      <c r="E56" s="6">
-        <v>2858</v>
-      </c>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="5" t="s">
@@ -2531,9 +2421,7 @@
       <c r="D57" s="6">
         <v>0</v>
       </c>
-      <c r="E57" s="6">
-        <v>0</v>
-      </c>
+      <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="7" t="s">
@@ -2546,9 +2434,7 @@
       <c r="D58" s="13">
         <v>2564</v>
       </c>
-      <c r="E58" s="13">
-        <v>2858</v>
-      </c>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="10" t="s">
@@ -2561,9 +2447,7 @@
       <c r="D59" s="11">
         <v>73502</v>
       </c>
-      <c r="E59" s="11">
-        <v>71942</v>
-      </c>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="5" t="s">
@@ -2576,9 +2460,7 @@
       <c r="D60" s="6">
         <v>36000</v>
       </c>
-      <c r="E60" s="6">
-        <v>40100</v>
-      </c>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="5" t="s">
@@ -2591,9 +2473,7 @@
       <c r="D61" s="6">
         <v>0</v>
       </c>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="5" t="s">
@@ -2606,9 +2486,7 @@
       <c r="D62" s="6">
         <v>1567</v>
       </c>
-      <c r="E62" s="6">
-        <v>75424</v>
-      </c>
+      <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="5" t="s">
@@ -2621,9 +2499,7 @@
       <c r="D63" s="6">
         <v>0</v>
       </c>
-      <c r="E63" s="6">
-        <v>0</v>
-      </c>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="5" t="s">
@@ -2636,9 +2512,7 @@
       <c r="D64" s="6">
         <v>0</v>
       </c>
-      <c r="E64" s="6">
-        <v>0</v>
-      </c>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="5" t="s">
@@ -2651,9 +2525,7 @@
       <c r="D65" s="6">
         <v>16811</v>
       </c>
-      <c r="E65" s="6">
-        <v>16811</v>
-      </c>
+      <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="5" t="s">
@@ -2666,9 +2538,7 @@
       <c r="D66" s="6">
         <v>83152</v>
       </c>
-      <c r="E66" s="6">
-        <v>119061</v>
-      </c>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="10" t="s">
@@ -2681,9 +2551,7 @@
       <c r="D67" s="11">
         <v>138186</v>
       </c>
-      <c r="E67" s="11">
-        <v>251397</v>
-      </c>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="14" t="s">
@@ -2696,9 +2564,7 @@
       <c r="D68" s="15">
         <v>157576</v>
       </c>
-      <c r="E68" s="15">
-        <v>121159</v>
-      </c>
+      <c r="E68" s="15"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="14" t="s">
@@ -2711,9 +2577,7 @@
       <c r="D69" s="15">
         <v>49896</v>
       </c>
-      <c r="E69" s="15">
-        <v>38834</v>
-      </c>
+      <c r="E69" s="15"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="16" t="s">
@@ -2726,9 +2590,7 @@
       <c r="D70" s="17">
         <v>2090</v>
       </c>
-      <c r="E70" s="17">
-        <v>1284</v>
-      </c>
+      <c r="E70" s="17"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="16" t="s">
@@ -2741,9 +2603,7 @@
       <c r="D71" s="17">
         <v>53459</v>
       </c>
-      <c r="E71" s="17">
-        <v>36569</v>
-      </c>
+      <c r="E71" s="17"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="16" t="s">
@@ -2756,9 +2616,7 @@
       <c r="D72" s="17">
         <v>10636</v>
       </c>
-      <c r="E72" s="17">
-        <v>9054</v>
-      </c>
+      <c r="E72" s="17"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="16" t="s">
@@ -2771,9 +2629,7 @@
       <c r="D73" s="17">
         <v>0</v>
       </c>
-      <c r="E73" s="17">
-        <v>0</v>
-      </c>
+      <c r="E73" s="17"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="16" t="s">
@@ -2786,9 +2642,7 @@
       <c r="D74" s="17">
         <v>-743</v>
       </c>
-      <c r="E74" s="17">
-        <v>-1635</v>
-      </c>
+      <c r="E74" s="17"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="16" t="s">
@@ -2801,9 +2655,7 @@
       <c r="D75" s="17">
         <v>0</v>
       </c>
-      <c r="E75" s="17">
-        <v>0</v>
-      </c>
+      <c r="E75" s="17"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="16" t="s">
@@ -2816,9 +2668,7 @@
       <c r="D76" s="17">
         <v>0</v>
       </c>
-      <c r="E76" s="17">
-        <v>0</v>
-      </c>
+      <c r="E76" s="17"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="16" t="s">
@@ -2831,9 +2681,7 @@
       <c r="D77" s="17">
         <v>0</v>
       </c>
-      <c r="E77" s="17">
-        <v>0</v>
-      </c>
+      <c r="E77" s="17"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="16" t="s">
@@ -2846,9 +2694,7 @@
       <c r="D78" s="17">
         <v>0</v>
       </c>
-      <c r="E78" s="17">
-        <v>0</v>
-      </c>
+      <c r="E78" s="17"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="16" t="s">
@@ -2861,9 +2707,7 @@
       <c r="D79" s="17">
         <v>0</v>
       </c>
-      <c r="E79" s="17">
-        <v>0</v>
-      </c>
+      <c r="E79" s="17"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="16" t="s">
@@ -2876,9 +2720,7 @@
       <c r="D80" s="17">
         <v>0</v>
       </c>
-      <c r="E80" s="17">
-        <v>0</v>
-      </c>
+      <c r="E80" s="17"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="16" t="s">
@@ -2891,9 +2733,7 @@
       <c r="D81" s="17">
         <v>0</v>
       </c>
-      <c r="E81" s="17">
-        <v>0</v>
-      </c>
+      <c r="E81" s="17"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="14" t="s">
@@ -2906,9 +2746,7 @@
       <c r="D82" s="15">
         <v>48417</v>
       </c>
-      <c r="E82" s="15">
-        <v>42728</v>
-      </c>
+      <c r="E82" s="15"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="16" t="s">
@@ -2921,9 +2759,7 @@
       <c r="D83" s="17">
         <v>0</v>
       </c>
-      <c r="E83" s="17">
-        <v>0</v>
-      </c>
+      <c r="E83" s="17"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="16" t="s">
@@ -2936,9 +2772,7 @@
       <c r="D84" s="17">
         <v>0</v>
       </c>
-      <c r="E84" s="17">
-        <v>0</v>
-      </c>
+      <c r="E84" s="17"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="14" t="s">
@@ -2951,9 +2785,7 @@
       <c r="D85" s="15">
         <v>48630</v>
       </c>
-      <c r="E85" s="15">
-        <v>42867</v>
-      </c>
+      <c r="E85" s="15"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="16" t="s">
@@ -2966,9 +2798,7 @@
       <c r="D86" s="17">
         <v>7426</v>
       </c>
-      <c r="E86" s="17">
-        <v>7165</v>
-      </c>
+      <c r="E86" s="17"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="14" t="s">
@@ -2981,9 +2811,7 @@
       <c r="D87" s="15">
         <v>41204</v>
       </c>
-      <c r="E87" s="15">
-        <v>35703</v>
-      </c>
+      <c r="E87" s="15"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="18" t="s">
@@ -2996,9 +2824,7 @@
       <c r="D88" s="19">
         <v>195586</v>
       </c>
-      <c r="E88" s="19">
-        <v>144769</v>
-      </c>
+      <c r="E88" s="19"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="20" t="s">
@@ -3011,9 +2837,7 @@
       <c r="D89" s="19">
         <v>186227</v>
       </c>
-      <c r="E89" s="19">
-        <v>138475</v>
-      </c>
+      <c r="E89" s="19"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="18" t="s">
@@ -3026,9 +2850,7 @@
       <c r="D90" s="19">
         <v>143917</v>
       </c>
-      <c r="E90" s="19">
-        <v>116360</v>
-      </c>
+      <c r="E90" s="19"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="21" t="s">
@@ -3041,9 +2863,7 @@
       <c r="D91" s="22">
         <v>51669</v>
       </c>
-      <c r="E91" s="22">
-        <v>28409</v>
-      </c>
+      <c r="E91" s="22"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="18" t="s">
@@ -3056,9 +2876,7 @@
       <c r="D92" s="19">
         <v>109510</v>
       </c>
-      <c r="E92" s="19">
-        <v>65352</v>
-      </c>
+      <c r="E92" s="19"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="23" t="s">
@@ -3071,9 +2889,7 @@
       <c r="D93" s="22">
         <v>115134</v>
       </c>
-      <c r="E93" s="22">
-        <v>145839</v>
-      </c>
+      <c r="E93" s="22"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="21" t="s">
@@ -3086,9 +2902,7 @@
       <c r="D94" s="22">
         <v>-5624</v>
       </c>
-      <c r="E94" s="22">
-        <v>-80487</v>
-      </c>
+      <c r="E94" s="22"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="18" t="s">
@@ -3101,9 +2915,7 @@
       <c r="D95" s="19">
         <v>0</v>
       </c>
-      <c r="E95" s="19">
-        <v>80427</v>
-      </c>
+      <c r="E95" s="19"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="18" t="s">
@@ -3116,9 +2928,7 @@
       <c r="D96" s="19">
         <v>0</v>
       </c>
-      <c r="E96" s="19">
-        <v>1430</v>
-      </c>
+      <c r="E96" s="19"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="21" t="s">
@@ -3131,9 +2941,7 @@
       <c r="D97" s="22">
         <v>0</v>
       </c>
-      <c r="E97" s="22">
-        <v>78997</v>
-      </c>
+      <c r="E97" s="22"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="21" t="s">
@@ -3141,14 +2949,13 @@
       </c>
       <c r="B98" s="22"/>
       <c r="C98" s="22">
+        <f>C91+C93+C97</f>
+        <v>73199</v>
+      </c>
+      <c r="D98" s="22">
         <v>16153</v>
       </c>
-      <c r="D98" s="22">
-        <v>46045</v>
-      </c>
-      <c r="E98" s="22">
-        <v>26926</v>
-      </c>
+      <c r="E98" s="22"/>
     </row>
   </sheetData>
   <sheetProtection password="CF7A" sheet="1" selectLockedCells="1" objects="1"/>
